--- a/output/flowmap_완성본.xlsx
+++ b/output/flowmap_완성본.xlsx
@@ -554,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.5537226</v>
+        <v>37.6378202</v>
       </c>
       <c r="D2" t="n">
-        <v>126.8261361</v>
+        <v>127.0593743</v>
       </c>
     </row>
     <row r="3">
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37.5690926</v>
+        <v>37.65843</v>
       </c>
       <c r="D3" t="n">
-        <v>126.8484843</v>
+        <v>126.9464261</v>
       </c>
     </row>
     <row r="4">
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37.5648301</v>
+        <v>37.5003552</v>
       </c>
       <c r="D4" t="n">
-        <v>126.922361</v>
+        <v>127.073777</v>
       </c>
     </row>
     <row r="5">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37.5583347</v>
+        <v>37.5176977</v>
       </c>
       <c r="D5" t="n">
-        <v>126.9255789</v>
+        <v>127.0075348</v>
       </c>
     </row>
     <row r="6">
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37.5687403</v>
+        <v>37.5174247</v>
       </c>
       <c r="D6" t="n">
-        <v>127.0694506</v>
+        <v>127.1309598</v>
       </c>
     </row>
     <row r="7">
@@ -686,442 +686,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37.5615059</v>
+        <v>37.5246037</v>
       </c>
       <c r="D7" t="n">
-        <v>127.063817</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>노선3_시작</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>37.5509611</v>
-      </c>
-      <c r="D8" t="n">
-        <v>126.8179873</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>노선3_종점</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>37.5566599</v>
-      </c>
-      <c r="D9" t="n">
-        <v>126.818399</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>노선4_시작</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>37.5149143</v>
-      </c>
-      <c r="D10" t="n">
-        <v>127.0156671</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>노선4_종점</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>37.5099743</v>
-      </c>
-      <c r="D11" t="n">
-        <v>127.0072243</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>노선5_시작</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>37.5747658</v>
-      </c>
-      <c r="D12" t="n">
-        <v>126.9704198</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>L11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>노선5_종점</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>37.5649238</v>
-      </c>
-      <c r="D13" t="n">
-        <v>126.977084</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>L12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>노선6_시작</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>37.5190228</v>
-      </c>
-      <c r="D14" t="n">
-        <v>126.8950065</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>L13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>노선6_종점</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>37.5182798</v>
-      </c>
-      <c r="D15" t="n">
-        <v>126.9024393</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>L14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>노선7_시작</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>37.5149749</v>
-      </c>
-      <c r="D16" t="n">
-        <v>126.8724278</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>L15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>노선7_종점</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>37.5198313</v>
-      </c>
-      <c r="D17" t="n">
-        <v>126.8683976</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>노선8_시작</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>37.4958363</v>
-      </c>
-      <c r="D18" t="n">
-        <v>126.9084525</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>L17</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>노선8_종점</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>37.484809</v>
-      </c>
-      <c r="D19" t="n">
-        <v>126.9012953</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>L18</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>노선9_시작</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>37.5731952</v>
-      </c>
-      <c r="D20" t="n">
-        <v>126.9976043</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>L19</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>노선9_종점</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>37.5705884</v>
-      </c>
-      <c r="D21" t="n">
-        <v>126.9942755</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>L20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>노선10_시작</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>37.5452991</v>
-      </c>
-      <c r="D22" t="n">
-        <v>127.0534019</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>L21</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>노선10_종점</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>37.5475179</v>
-      </c>
-      <c r="D23" t="n">
-        <v>127.0670687</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>L22</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>노선11_시작</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>37.575464</v>
-      </c>
-      <c r="D24" t="n">
-        <v>127.0227269</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>L23</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>노선11_종점</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>37.565837</v>
-      </c>
-      <c r="D25" t="n">
-        <v>127.0085487</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>노선12_시작</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>37.569519</v>
-      </c>
-      <c r="D26" t="n">
-        <v>126.9743808</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>L25</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>노선12_종점</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>37.5743421</v>
-      </c>
-      <c r="D27" t="n">
-        <v>126.9781771</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>L26</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>노선13_시작</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>37.5577062</v>
-      </c>
-      <c r="D28" t="n">
-        <v>126.8296805</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>L27</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>노선13_종점</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>37.5591301</v>
-      </c>
-      <c r="D29" t="n">
-        <v>126.8332737</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>L28</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>노선14_시작</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>37.5716155</v>
-      </c>
-      <c r="D30" t="n">
-        <v>127.0413548</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>L29</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>노선14_종점</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>37.5459502</v>
-      </c>
-      <c r="D31" t="n">
-        <v>127.0303414</v>
+        <v>127.10236</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,7 +745,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>10908</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1195,7 +763,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>1108</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1213,226 +781,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>L6</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L7</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>L8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L9</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L10</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L11</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L12</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L13</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L14</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>L15</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>22</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>L16</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>L17</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>L18</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>L19</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>34</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>L20</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>L21</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>L22</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>L23</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>87</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>L24</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>L25</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>29</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>L26</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>L27</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>23</v>
-      </c>
-      <c r="D15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>L28</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>L29</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>24</v>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
